--- a/biology/Zoologie/Hypolimnas_octocula/Hypolimnas_octocula.xlsx
+++ b/biology/Zoologie/Hypolimnas_octocula/Hypolimnas_octocula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypolimnas octocula est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Nymphalinae et du genre Hypolimnas.
 </t>
@@ -511,17 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom d'Hypolimnas octocula a été donné par Butler en  1869[1].
-Noms vernaculaires
-Hypolimnas octocula se nomme en anglais Eight-spot butterfly et Mariana Eight Spot Butterfly ou Forest Flicke.
-Sous-espèces
-Hypolimnas octocula octocula
-Hypolimnas octocula elsina Butler ; en Nouvelle-Calédonie à Grande terre et aux iles Loyauté.
-Hypolimnas octocula formosa Herrich-Schäffer ;
-Hypolimnas octocula marianensis[2]
-Hypolimnas octocula pallas Grose-Smith ;  au Vanuatu .</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom d'Hypolimnas octocula a été donné par Butler en  1869.
+</t>
         </is>
       </c>
     </row>
@@ -546,10 +553,89 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypolimnas octocula se nomme en anglais Eight-spot butterfly et Mariana Eight Spot Butterfly ou Forest Flicke.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hypolimnas_octocula</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypolimnas_octocula</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hypolimnas octocula octocula
+Hypolimnas octocula elsina Butler ; en Nouvelle-Calédonie à Grande terre et aux iles Loyauté.
+Hypolimnas octocula formosa Herrich-Schäffer ;
+Hypolimnas octocula marianensis
+Hypolimnas octocula pallas Grose-Smith ;  au Vanuatu .</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hypolimnas_octocula</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypolimnas_octocula</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un grand papillon marron aux ailes antérieures au bord concave avec une bande orange traversant l'aile, l'apex est un triangle marron, alors qu'une bande submaginale orange marquée d'une ligne d'ocelles marron pupillés de blanc orne les ailes postérieures.
 Le revers est marron avec la même bande orange aux antérieures et la ligne submarginale de points blancs qui centrent les ocelles.
@@ -557,71 +643,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hypolimnas_octocula</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hypolimnas_octocula</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hypolimnas_octocula</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hypolimnas_octocula</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Écologie et répartition</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent au Vanuatu aux Îles Mariannes et en Nouvelle-Calédonie à Grande terre et aux iles loyauté[1]. 
-Biotope
-Il réside dans la forêt humide.
-Protection
-Pas de statut de protection particulier.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -643,10 +664,119 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent au Vanuatu aux Îles Mariannes et en Nouvelle-Calédonie à Grande terre et aux iles loyauté. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hypolimnas_octocula</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypolimnas_octocula</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et répartition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt humide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hypolimnas_octocula</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypolimnas_octocula</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et répartition</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hypolimnas_octocula</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypolimnas_octocula</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Il orne un timbre du Vanuatu et un timbre de Nouvelle-Calédonie de 1991 ( Hypolimnas octocula elsina et Pipturus incanus).
 </t>
